--- a/medaile.xlsx
+++ b/medaile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrkoci/Documents/code/hokej-historie-poradi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDCDAB-3ED5-E54F-9A52-43EECAE693C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73415663-FFC8-6349-A6B8-2DD0C9AB48A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="73">
   <si>
     <t>Hokejové mistrovství světa</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Jugoslávie</t>
-  </si>
-  <si>
-    <t>SRN</t>
   </si>
   <si>
     <t>SSSR</t>
@@ -737,7 +734,7 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1422,7 @@
         <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
         <v>48</v>
@@ -1439,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>22</v>
@@ -1465,7 +1462,7 @@
         <v>1954</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>18</v>
@@ -1477,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
@@ -1497,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>20</v>
@@ -1509,7 +1506,7 @@
         <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -1526,7 +1523,7 @@
         <v>1956</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>19</v>
@@ -1541,7 +1538,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
         <v>39</v>
@@ -1564,16 +1561,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -1582,7 +1579,7 @@
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -1593,7 +1590,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>21</v>
@@ -1622,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>20</v>
@@ -1637,13 +1634,13 @@
         <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K28" t="s">
         <v>39</v>
@@ -1666,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>20</v>
@@ -1675,16 +1672,16 @@
         <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
         <v>55</v>
       </c>
       <c r="I29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" t="s">
         <v>61</v>
-      </c>
-      <c r="J29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -1698,14 +1695,14 @@
         <v>20</v>
       </c>
       <c r="D30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
       </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
-      </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
@@ -1713,7 +1710,7 @@
         <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -1736,7 +1733,7 @@
         <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H31" t="s">
         <v>22</v>
@@ -1750,28 +1747,28 @@
         <v>1963</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
-      </c>
       <c r="H32" t="s">
         <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1779,7 +1776,7 @@
         <v>1964</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>21</v>
@@ -1797,7 +1794,7 @@
         <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
@@ -1808,19 +1805,19 @@
         <v>1965</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
         <v>59</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -1837,19 +1834,19 @@
         <v>1966</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
         <v>59</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>60</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -1866,28 +1863,28 @@
         <v>1967</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" t="s">
-        <v>60</v>
-      </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1895,28 +1892,28 @@
         <v>1968</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
         <v>59</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1924,7 +1921,7 @@
         <v>1969</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>21</v>
@@ -1947,19 +1944,19 @@
         <v>1970</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
         <v>59</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" t="s">
-        <v>60</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -1970,7 +1967,7 @@
         <v>1971</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>20</v>
@@ -1982,7 +1979,7 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>19</v>
@@ -1996,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>21</v>
@@ -2005,7 +2002,7 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>22</v>
@@ -2016,7 +2013,7 @@
         <v>1973</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>21</v>
@@ -2031,7 +2028,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2039,7 +2036,7 @@
         <v>1974</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>20</v>
@@ -2054,7 +2051,7 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2062,7 +2059,7 @@
         <v>1975</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>20</v>
@@ -2088,7 +2085,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>21</v>
@@ -2100,13 +2097,13 @@
         <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
         <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2120,7 +2117,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
@@ -2132,7 +2129,7 @@
         <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
         <v>34</v>
@@ -2143,28 +2140,28 @@
         <v>1978</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" t="s">
         <v>59</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" t="s">
-        <v>55</v>
-      </c>
-      <c r="I47" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2172,7 +2169,7 @@
         <v>1979</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>20</v>
@@ -2187,7 +2184,7 @@
         <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
         <v>19</v>
@@ -2201,7 +2198,7 @@
         <v>1981</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>21</v>
@@ -2219,7 +2216,7 @@
         <v>55</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I49" t="s">
         <v>43</v>
@@ -2230,7 +2227,7 @@
         <v>1982</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>20</v>
@@ -2245,7 +2242,7 @@
         <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
         <v>39</v>
@@ -2259,22 +2256,22 @@
         <v>1983</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
         <v>59</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
       </c>
       <c r="H51" t="s">
         <v>55</v>
@@ -2294,22 +2291,22 @@
         <v>18</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
         <v>59</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" t="s">
-        <v>58</v>
-      </c>
-      <c r="I52" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
@@ -2317,7 +2314,7 @@
         <v>1986</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>21</v>
@@ -2335,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
         <v>29</v>
@@ -2349,7 +2346,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>20</v>
@@ -2361,7 +2358,7 @@
         <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
         <v>19</v>
@@ -2375,7 +2372,7 @@
         <v>1989</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>18</v>
@@ -2393,7 +2390,7 @@
         <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I55" t="s">
         <v>29</v>
@@ -2404,7 +2401,7 @@
         <v>1990</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>21</v>
@@ -2439,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
         <v>19</v>
@@ -2474,7 +2471,7 @@
         <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -2503,13 +2500,13 @@
         <v>1993</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
@@ -2556,13 +2553,13 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" t="s">
         <v>39</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I60" t="s">
         <v>28</v>
@@ -2594,10 +2591,10 @@
         <v>18</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" t="s">
         <v>19</v>
@@ -2626,7 +2623,7 @@
         <v>1996</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>18</v>
@@ -2635,7 +2632,7 @@
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
         <v>55</v>
@@ -2653,7 +2650,7 @@
         <v>48</v>
       </c>
       <c r="K62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -2673,10 +2670,10 @@
         <v>21</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
@@ -2691,7 +2688,7 @@
         <v>39</v>
       </c>
       <c r="J63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K63" t="s">
         <v>23</v>
@@ -2714,22 +2711,22 @@
         <v>55</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
         <v>18</v>
       </c>
       <c r="H64" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" t="s">
         <v>66</v>
-      </c>
-      <c r="I64" t="s">
-        <v>67</v>
       </c>
       <c r="J64" t="s">
         <v>38</v>
@@ -2747,13 +2744,13 @@
         <v>23</v>
       </c>
       <c r="O64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P64" t="s">
         <v>28</v>
       </c>
       <c r="Q64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
@@ -2761,7 +2758,7 @@
         <v>1999</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>55</v>
@@ -2773,25 +2770,25 @@
         <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
         <v>66</v>
-      </c>
-      <c r="I65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" t="s">
-        <v>67</v>
       </c>
       <c r="K65" t="s">
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M65" t="s">
         <v>48</v>
@@ -2800,13 +2797,13 @@
         <v>39</v>
       </c>
       <c r="O65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P65" t="s">
         <v>23</v>
       </c>
       <c r="Q65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -2814,10 +2811,10 @@
         <v>2000</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>55</v>
@@ -2838,13 +2835,13 @@
         <v>38</v>
       </c>
       <c r="J66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K66" t="s">
         <v>48</v>
       </c>
       <c r="L66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M66" t="s">
         <v>39</v>
@@ -2853,13 +2850,13 @@
         <v>28</v>
       </c>
       <c r="O66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P66" t="s">
         <v>23</v>
       </c>
       <c r="Q66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
@@ -2867,7 +2864,7 @@
         <v>2001</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>55</v>
@@ -2882,10 +2879,10 @@
         <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I67" t="s">
         <v>30</v>
@@ -2894,7 +2891,7 @@
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L67" t="s">
         <v>28</v>
@@ -2906,13 +2903,13 @@
         <v>38</v>
       </c>
       <c r="O67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P67" t="s">
         <v>48</v>
       </c>
       <c r="Q67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
@@ -2920,20 +2917,20 @@
         <v>2002</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="G68" t="s">
         <v>18</v>
       </c>
@@ -2944,19 +2941,19 @@
         <v>30</v>
       </c>
       <c r="J68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s">
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M68" t="s">
         <v>28</v>
       </c>
       <c r="N68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O68" t="s">
         <v>29</v>
@@ -2965,7 +2962,7 @@
         <v>39</v>
       </c>
       <c r="Q68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
@@ -2979,16 +2976,16 @@
         <v>21</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H69" t="s">
         <v>30</v>
@@ -3006,19 +3003,19 @@
         <v>56</v>
       </c>
       <c r="M69" t="s">
+        <v>69</v>
+      </c>
+      <c r="N69" t="s">
+        <v>19</v>
+      </c>
+      <c r="O69" t="s">
+        <v>66</v>
+      </c>
+      <c r="P69" t="s">
         <v>70</v>
       </c>
-      <c r="N69" t="s">
-        <v>19</v>
-      </c>
-      <c r="O69" t="s">
-        <v>67</v>
-      </c>
-      <c r="P69" t="s">
-        <v>71</v>
-      </c>
       <c r="Q69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
@@ -3035,10 +3032,10 @@
         <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" t="s">
         <v>55</v>
@@ -3053,7 +3050,7 @@
         <v>30</v>
       </c>
       <c r="K70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s">
         <v>28</v>
@@ -3062,13 +3059,13 @@
         <v>56</v>
       </c>
       <c r="N70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q70" t="s">
         <v>23</v>
@@ -3079,19 +3076,19 @@
         <v>2005</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
         <v>64</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" t="s">
-        <v>65</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3106,16 +3103,16 @@
         <v>38</v>
       </c>
       <c r="K71" t="s">
+        <v>66</v>
+      </c>
+      <c r="L71" t="s">
+        <v>69</v>
+      </c>
+      <c r="M71" t="s">
         <v>67</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>70</v>
-      </c>
-      <c r="M71" t="s">
-        <v>68</v>
-      </c>
-      <c r="N71" t="s">
-        <v>71</v>
       </c>
       <c r="O71" t="s">
         <v>56</v>
@@ -3135,25 +3132,25 @@
         <v>21</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
         <v>64</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" t="s">
-        <v>65</v>
       </c>
       <c r="J72" t="s">
         <v>22</v>
@@ -3165,7 +3162,7 @@
         <v>48</v>
       </c>
       <c r="M72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N72" t="s">
         <v>56</v>
@@ -3174,10 +3171,10 @@
         <v>39</v>
       </c>
       <c r="P72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
@@ -3191,19 +3188,19 @@
         <v>55</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E73" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>65</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -3215,7 +3212,7 @@
         <v>56</v>
       </c>
       <c r="L73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M73" t="s">
         <v>39</v>
@@ -3230,7 +3227,7 @@
         <v>28</v>
       </c>
       <c r="Q73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
@@ -3238,19 +3235,19 @@
         <v>2008</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
@@ -3262,25 +3259,25 @@
         <v>48</v>
       </c>
       <c r="J74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K74" t="s">
         <v>30</v>
       </c>
       <c r="L74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M74" t="s">
         <v>56</v>
       </c>
       <c r="N74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O74" t="s">
         <v>23</v>
       </c>
       <c r="P74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q74" t="s">
         <v>39</v>
@@ -3291,34 +3288,34 @@
         <v>2009</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" t="s">
-        <v>55</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H75" t="s">
         <v>38</v>
       </c>
       <c r="I75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J75" t="s">
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L75" t="s">
         <v>48</v>
@@ -3344,10 +3341,10 @@
         <v>2010</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>21</v>
@@ -3371,13 +3368,13 @@
         <v>48</v>
       </c>
       <c r="K76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N76" t="s">
         <v>19</v>
@@ -3389,7 +3386,7 @@
         <v>39</v>
       </c>
       <c r="Q76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
@@ -3403,10 +3400,10 @@
         <v>21</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -3424,7 +3421,7 @@
         <v>22</v>
       </c>
       <c r="K77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L77" t="s">
         <v>56</v>
@@ -3436,13 +3433,13 @@
         <v>38</v>
       </c>
       <c r="O77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P77" t="s">
         <v>28</v>
       </c>
       <c r="Q77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
@@ -3450,13 +3447,13 @@
         <v>2012</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E78" t="s">
         <v>55</v>
@@ -3489,13 +3486,13 @@
         <v>56</v>
       </c>
       <c r="O78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P78" t="s">
         <v>39</v>
       </c>
       <c r="Q78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
@@ -3518,13 +3515,13 @@
         <v>18</v>
       </c>
       <c r="G79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="I79" t="s">
         <v>64</v>
-      </c>
-      <c r="I79" t="s">
-        <v>65</v>
       </c>
       <c r="J79" t="s">
         <v>30</v>
@@ -3533,7 +3530,7 @@
         <v>48</v>
       </c>
       <c r="L79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M79" t="s">
         <v>56</v>
@@ -3542,13 +3539,13 @@
         <v>23</v>
       </c>
       <c r="O79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P79" t="s">
         <v>28</v>
       </c>
       <c r="Q79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
@@ -3556,17 +3553,17 @@
         <v>2014</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="F80" t="s">
         <v>18</v>
       </c>
@@ -3574,19 +3571,19 @@
         <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I80" t="s">
         <v>23</v>
       </c>
       <c r="J80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K80" t="s">
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M80" t="s">
         <v>48</v>
@@ -3601,7 +3598,7 @@
         <v>39</v>
       </c>
       <c r="Q80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
@@ -3612,28 +3609,28 @@
         <v>18</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="6" t="s">
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
         <v>64</v>
-      </c>
-      <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>55</v>
-      </c>
-      <c r="H81" t="s">
-        <v>67</v>
-      </c>
-      <c r="I81" t="s">
-        <v>22</v>
-      </c>
-      <c r="J81" t="s">
-        <v>65</v>
       </c>
       <c r="K81" t="s">
         <v>30</v>
@@ -3654,7 +3651,7 @@
         <v>28</v>
       </c>
       <c r="Q81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
@@ -3668,13 +3665,13 @@
         <v>55</v>
       </c>
       <c r="D82" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E82" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="G82" t="s">
         <v>21</v>
@@ -3686,7 +3683,7 @@
         <v>56</v>
       </c>
       <c r="J82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K82" t="s">
         <v>48</v>
@@ -3695,7 +3692,7 @@
         <v>22</v>
       </c>
       <c r="M82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N82" t="s">
         <v>38</v>
@@ -3707,7 +3704,7 @@
         <v>31</v>
       </c>
       <c r="Q82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
@@ -3721,19 +3718,19 @@
         <v>18</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E83" t="s">
-        <v>55</v>
-      </c>
-      <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
@@ -3751,13 +3748,13 @@
         <v>56</v>
       </c>
       <c r="N83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q83" t="s">
         <v>39</v>
@@ -3783,16 +3780,16 @@
         <v>55</v>
       </c>
       <c r="G84" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="I84" t="s">
         <v>38</v>
       </c>
       <c r="J84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K84" t="s">
         <v>56</v>
@@ -3810,10 +3807,10 @@
         <v>28</v>
       </c>
       <c r="P84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
